--- a/CPIs.xlsx
+++ b/CPIs.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
